--- a/SUPPLEMENTS/Suppl Table 2 fossils for dating/Suppl Table 2_Cerris dating3 UPDATED.xlsx
+++ b/SUPPLEMENTS/Suppl Table 2 fossils for dating/Suppl Table 2_Cerris dating3 UPDATED.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomdenk\Dropbox\Cerris oaks\Cerris 2022 draft share\Supplements\Suppl Table 2 fossils for dating\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guido\Dropbox\WiP\Cerris oaks\Cerris 2022 draft share\Supplements\Suppl Table 2 fossils for dating\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B38999-2E75-4859-84DE-7F4EF4B4BCBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Suppl Table 2" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Suppl Table 2'!$A$2:$AB$65</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4024,7 +4025,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4127,7 +4128,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4137,36 +4138,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4214,12 +4185,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4237,7 +4202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4249,7 +4214,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4257,11 +4221,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4373,14 +4332,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="11" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4402,8 +4361,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
@@ -4419,7 +4376,7 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -4468,7 +4425,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4745,155 +4702,156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+      <selection activeCell="X67" sqref="X67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="19" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="55.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" style="34" customWidth="1"/>
-    <col min="11" max="11" width="29.42578125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" style="34" customWidth="1"/>
-    <col min="13" max="13" width="48.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="5.42578125" style="37" customWidth="1"/>
-    <col min="19" max="23" width="6.42578125" style="44" customWidth="1"/>
-    <col min="24" max="24" width="17.5703125" style="37" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="5" customWidth="1"/>
-    <col min="26" max="26" width="17.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="60.85546875" style="5" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="5" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="6.5546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="6.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="28" customWidth="1"/>
+    <col min="9" max="9" width="55.6640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" style="28" customWidth="1"/>
+    <col min="11" max="11" width="29.44140625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" style="28" customWidth="1"/>
+    <col min="13" max="13" width="48.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="5.44140625" style="31" customWidth="1"/>
+    <col min="19" max="23" width="6.44140625" style="38" customWidth="1"/>
+    <col min="24" max="24" width="17.5546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.88671875" style="5" customWidth="1"/>
+    <col min="26" max="26" width="17.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="60.88671875" style="5" customWidth="1"/>
+    <col min="28" max="28" width="14.88671875" style="5" customWidth="1"/>
+    <col min="29" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="N1" s="97" t="s">
+    <row r="1" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65"/>
+      <c r="D1" s="1"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="N1" s="89" t="s">
         <v>136</v>
       </c>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97" t="s">
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89" t="s">
         <v>204</v>
       </c>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:28" s="2" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="66" t="s">
+      <c r="J2" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="66" t="s">
+      <c r="L2" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="Q2" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="S2" s="51" t="s">
+      <c r="S2" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="T2" s="51" t="s">
+      <c r="T2" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="U2" s="52" t="s">
+      <c r="U2" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="V2" s="53" t="s">
+      <c r="V2" s="47" t="s">
         <v>295</v>
       </c>
-      <c r="W2" s="54" t="s">
+      <c r="W2" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="X2" s="74" t="s">
+      <c r="X2" s="66" t="s">
         <v>287</v>
       </c>
-      <c r="Y2" s="56" t="s">
+      <c r="Y2" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="Z2" s="74" t="s">
+      <c r="Z2" s="66" t="s">
         <v>288</v>
       </c>
-      <c r="AA2" s="45" t="s">
+      <c r="AA2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="56" t="s">
+      <c r="AB2" s="50" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="68">
+      <c r="C3" s="62">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -4905,49 +4863,49 @@
       <c r="F3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="30" t="str">
+      <c r="H3" s="24" t="str">
         <f t="shared" ref="H3:H49" si="0">CONCATENATE(J3,":",MID(L3,4,3))</f>
         <v>WNA:EEo</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="24" t="s">
         <v>176</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="17" t="s">
         <v>175</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="N3" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32" t="s">
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="R3" s="32"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="37" t="s">
+      <c r="R3" s="26"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="61" t="s">
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="Z3" s="16"/>
+      <c r="Z3" s="10"/>
       <c r="AA3" s="4" t="s">
         <v>305</v>
       </c>
@@ -4955,14 +4913,14 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="68">
+      <c r="C4" s="62">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -4974,49 +4932,49 @@
       <c r="F4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="H4" s="30" t="str">
+      <c r="H4" s="24" t="str">
         <f t="shared" si="0"/>
         <v>NEA:EEo</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="M4" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33" t="s">
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="32" t="s">
+      <c r="S4" s="43"/>
+      <c r="T4" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
       <c r="X4" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="Y4" s="63" t="s">
+      <c r="Y4" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="Z4" s="75" t="s">
+      <c r="Z4" s="67" t="s">
         <v>292</v>
       </c>
       <c r="AA4" s="1" t="s">
@@ -5026,80 +4984,80 @@
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C5" s="69">
+      <c r="C5" s="63">
         <v>4</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="H5" s="40" t="str">
+      <c r="H5" s="34" t="str">
         <f t="shared" si="0"/>
         <v>NEA:EEo</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="K5" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="M5" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33" t="s">
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="S5" s="50"/>
-      <c r="T5" s="41" t="s">
+      <c r="S5" s="44"/>
+      <c r="T5" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="61" t="s">
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="AA5" s="16" t="s">
+      <c r="AA5" s="10" t="s">
         <v>96</v>
       </c>
       <c r="AB5" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="62">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -5111,47 +5069,47 @@
       <c r="F6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="H6" s="30" t="str">
+      <c r="H6" s="24" t="str">
         <f t="shared" si="0"/>
         <v>HIM:E/O</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="24" t="s">
         <v>178</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="17" t="s">
         <v>192</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="N6" s="35" t="s">
+      <c r="N6" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="37" t="s">
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="61" t="s">
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="Z6" s="16"/>
+      <c r="Z6" s="10"/>
       <c r="AA6" s="4" t="s">
         <v>72</v>
       </c>
@@ -5159,14 +5117,14 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C7" s="70">
+      <c r="C7" s="64">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -5178,47 +5136,47 @@
       <c r="F7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="H7" s="32" t="str">
+      <c r="H7" s="26" t="str">
         <f t="shared" si="0"/>
         <v>SEA:E/O</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="26" t="s">
         <v>179</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L7" s="23" t="s">
+      <c r="L7" s="17" t="s">
         <v>192</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32" t="s">
+      <c r="N7" s="26"/>
+      <c r="O7" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="37" t="s">
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="64" t="s">
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="Z7" s="75"/>
+      <c r="Z7" s="67"/>
       <c r="AA7" s="3" t="s">
         <v>73</v>
       </c>
@@ -5226,14 +5184,14 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="62">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -5245,40 +5203,40 @@
       <c r="F8" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="H8" s="31" t="str">
+      <c r="H8" s="25" t="str">
         <f t="shared" si="0"/>
         <v>SEA:LEo</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="25" t="s">
         <v>179</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="L8" s="17" t="s">
         <v>191</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35" t="s">
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="T8" s="37" t="s">
+      <c r="T8" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="62" t="s">
+      <c r="X8" s="32"/>
+      <c r="Y8" s="56" t="s">
         <v>101</v>
       </c>
       <c r="AA8" s="4" t="s">
@@ -5288,14 +5246,14 @@
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="62">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -5307,40 +5265,40 @@
       <c r="F9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="H9" s="31" t="str">
+      <c r="H9" s="25" t="str">
         <f t="shared" si="0"/>
         <v>SEA:LEo</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="25" t="s">
         <v>179</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="17" t="s">
         <v>191</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35" t="s">
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="T9" s="37" t="s">
+      <c r="T9" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="62" t="s">
+      <c r="X9" s="32"/>
+      <c r="Y9" s="56" t="s">
         <v>101</v>
       </c>
       <c r="AA9" s="4" t="s">
@@ -5350,14 +5308,14 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="62">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -5369,40 +5327,40 @@
       <c r="F10" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="H10" s="31" t="str">
+      <c r="H10" s="25" t="str">
         <f t="shared" si="0"/>
         <v>HIM:LEo</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="31" t="s">
+      <c r="J10" s="25" t="s">
         <v>178</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="17" t="s">
         <v>191</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="N10" s="35" t="s">
+      <c r="N10" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="T10" s="37" t="s">
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="T10" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="61" t="s">
+      <c r="X10" s="32"/>
+      <c r="Y10" s="55" t="s">
         <v>102</v>
       </c>
       <c r="AA10" s="4" t="s">
@@ -5412,14 +5370,14 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="62">
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -5431,43 +5389,43 @@
       <c r="F11" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="H11" s="31" t="str">
+      <c r="H11" s="25" t="str">
         <f t="shared" si="0"/>
         <v>HIM:E/O</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="25" t="s">
         <v>178</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="23" t="s">
+      <c r="L11" s="17" t="s">
         <v>192</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="N11" s="35" t="s">
+      <c r="N11" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="37" t="s">
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="58" t="s">
+      <c r="X11" s="32"/>
+      <c r="Y11" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="Z11" s="76"/>
+      <c r="Z11" s="68"/>
       <c r="AA11" s="4" t="s">
         <v>76</v>
       </c>
@@ -5475,14 +5433,14 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="62">
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -5494,45 +5452,45 @@
       <c r="F12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="H12" s="31" t="str">
+      <c r="H12" s="25" t="str">
         <f t="shared" si="0"/>
         <v>HIM:EOl</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="31" t="s">
+      <c r="J12" s="25" t="s">
         <v>178</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="23" t="s">
+      <c r="L12" s="17" t="s">
         <v>193</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="N12" s="35" t="s">
+      <c r="N12" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35" t="s">
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="S12" s="37" t="s">
+      <c r="S12" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="58" t="s">
+      <c r="X12" s="32"/>
+      <c r="Y12" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="Z12" s="76"/>
+      <c r="Z12" s="68"/>
       <c r="AA12" s="4" t="s">
         <v>76</v>
       </c>
@@ -5540,14 +5498,14 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C13" s="68">
+      <c r="C13" s="62">
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -5559,40 +5517,40 @@
       <c r="F13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="H13" s="31" t="str">
+      <c r="H13" s="25" t="str">
         <f t="shared" si="0"/>
         <v>WEA:EOl</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J13" s="31" t="s">
+      <c r="J13" s="25" t="s">
         <v>180</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="23" t="s">
+      <c r="L13" s="17" t="s">
         <v>193</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35" t="s">
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="T13" s="37" t="s">
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="T13" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="62" t="s">
+      <c r="X13" s="32"/>
+      <c r="Y13" s="56" t="s">
         <v>101</v>
       </c>
       <c r="AA13" s="4" t="s">
@@ -5602,14 +5560,14 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C14" s="68">
+      <c r="C14" s="62">
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -5621,57 +5579,57 @@
       <c r="F14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="H14" s="31" t="str">
+      <c r="H14" s="25" t="str">
         <f t="shared" si="0"/>
         <v>WEA:EMi</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="31" t="s">
+      <c r="J14" s="25" t="s">
         <v>180</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="23" t="s">
+      <c r="L14" s="17" t="s">
         <v>195</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="N14" s="35" t="s">
+      <c r="N14" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="T14" s="37" t="s">
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="T14" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="62" t="s">
+      <c r="X14" s="32"/>
+      <c r="Y14" s="56" t="s">
         <v>101</v>
       </c>
       <c r="AA14" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AB14" s="16" t="s">
+      <c r="AB14" s="10" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C15" s="68">
+      <c r="C15" s="62">
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -5683,65 +5641,65 @@
       <c r="F15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="31" t="str">
+      <c r="H15" s="25" t="str">
         <f t="shared" si="0"/>
         <v>WEA:MMi</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J15" s="31" t="s">
+      <c r="J15" s="25" t="s">
         <v>180</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="23" t="s">
+      <c r="L15" s="17" t="s">
         <v>196</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="N15" s="35" t="s">
+      <c r="N15" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35" t="s">
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="R15" s="35"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="55" t="s">
+      <c r="R15" s="29"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="U15" s="50" t="s">
+      <c r="U15" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="V15" s="50"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="75"/>
-      <c r="Y15" s="62" t="s">
+      <c r="V15" s="44"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="56" t="s">
         <v>101</v>
       </c>
       <c r="AA15" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AB15" s="16" t="s">
+      <c r="AB15" s="10" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C16" s="68">
+      <c r="C16" s="62">
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -5753,61 +5711,61 @@
       <c r="F16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="H16" s="31" t="str">
+      <c r="H16" s="25" t="str">
         <f t="shared" si="0"/>
         <v>WEA:LMi</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="31" t="s">
+      <c r="J16" s="25" t="s">
         <v>180</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="23" t="s">
+      <c r="L16" s="17" t="s">
         <v>197</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="55" t="s">
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="U16" s="50" t="s">
+      <c r="U16" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="V16" s="50"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="75"/>
-      <c r="Y16" s="62" t="s">
+      <c r="V16" s="44"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="56" t="s">
         <v>101</v>
       </c>
       <c r="AA16" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="AB16" s="16" t="s">
+      <c r="AB16" s="10" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C17" s="68">
+      <c r="C17" s="62">
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -5819,61 +5777,61 @@
       <c r="F17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="H17" s="31" t="str">
+      <c r="H17" s="25" t="str">
         <f t="shared" si="0"/>
         <v>WEA:LMi</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="31" t="s">
+      <c r="J17" s="25" t="s">
         <v>180</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="23" t="s">
+      <c r="L17" s="17" t="s">
         <v>197</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="35" t="s">
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="S17" s="50"/>
-      <c r="T17" s="41" t="s">
+      <c r="S17" s="44"/>
+      <c r="T17" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="75"/>
-      <c r="Y17" s="62" t="s">
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="67"/>
+      <c r="Y17" s="56" t="s">
         <v>101</v>
       </c>
       <c r="AA17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AB17" s="16" t="s">
+      <c r="AB17" s="10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C18" s="68">
+      <c r="C18" s="62">
         <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -5885,59 +5843,59 @@
       <c r="F18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="H18" s="31" t="str">
+      <c r="H18" s="25" t="str">
         <f t="shared" si="0"/>
         <v>WEA:EMi</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="J18" s="25" t="s">
         <v>180</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="23" t="s">
+      <c r="L18" s="17" t="s">
         <v>195</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="N18" s="35" t="s">
+      <c r="N18" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35" t="s">
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="R18" s="35"/>
-      <c r="T18" s="37" t="s">
+      <c r="R18" s="29"/>
+      <c r="T18" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="62" t="s">
+      <c r="X18" s="32"/>
+      <c r="Y18" s="56" t="s">
         <v>101</v>
       </c>
       <c r="AA18" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="AB18" s="16" t="s">
+      <c r="AB18" s="10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C19" s="68">
+      <c r="C19" s="62">
         <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -5949,57 +5907,57 @@
       <c r="F19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="H19" s="31" t="str">
+      <c r="H19" s="25" t="str">
         <f t="shared" si="0"/>
         <v>WEA:EMi</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="31" t="s">
+      <c r="J19" s="25" t="s">
         <v>180</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="23" t="s">
+      <c r="L19" s="17" t="s">
         <v>195</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="N19" s="35" t="s">
+      <c r="N19" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="T19" s="37" t="s">
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="T19" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="62" t="s">
+      <c r="X19" s="32"/>
+      <c r="Y19" s="56" t="s">
         <v>101</v>
       </c>
       <c r="AA19" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AB19" s="16" t="s">
+      <c r="AB19" s="10" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C20" s="68">
+      <c r="C20" s="62">
         <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -6011,57 +5969,57 @@
       <c r="F20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="H20" s="31" t="str">
+      <c r="H20" s="25" t="str">
         <f t="shared" si="0"/>
         <v>WEA:EMi</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="31" t="s">
+      <c r="J20" s="25" t="s">
         <v>180</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="23" t="s">
+      <c r="L20" s="17" t="s">
         <v>195</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35" t="s">
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="R20" s="35"/>
-      <c r="T20" s="37" t="s">
+      <c r="R20" s="29"/>
+      <c r="T20" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="62" t="s">
+      <c r="X20" s="32"/>
+      <c r="Y20" s="56" t="s">
         <v>101</v>
       </c>
       <c r="AA20" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AB20" s="16" t="s">
+      <c r="AB20" s="10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C21" s="68">
+      <c r="C21" s="62">
         <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -6073,66 +6031,66 @@
       <c r="F21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="H21" s="31" t="str">
+      <c r="H21" s="25" t="str">
         <f t="shared" si="0"/>
         <v>WEA:LMi</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="25" t="s">
         <v>180</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L21" s="23" t="s">
+      <c r="L21" s="17" t="s">
         <v>197</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35" t="s">
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="R21" s="35"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="55" t="s">
+      <c r="R21" s="29"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="U21" s="50" t="s">
+      <c r="U21" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="V21" s="50"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="75"/>
-      <c r="Y21" s="62" t="s">
+      <c r="V21" s="44"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="67"/>
+      <c r="Y21" s="56" t="s">
         <v>101</v>
       </c>
       <c r="AA21" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="AB21" s="16" t="s">
+      <c r="AB21" s="10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C22" s="68">
+      <c r="C22" s="62">
         <v>16</v>
       </c>
-      <c r="D22" s="72" t="s">
+      <c r="D22" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -6141,73 +6099,73 @@
       <c r="F22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="H22" s="30" t="str">
+      <c r="H22" s="24" t="str">
         <f t="shared" si="0"/>
         <v>NEA:LEo</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="J22" s="30" t="s">
+      <c r="J22" s="24" t="s">
         <v>177</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="23" t="s">
+      <c r="L22" s="17" t="s">
         <v>191</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35" t="s">
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="S22" s="50"/>
-      <c r="T22" s="55" t="s">
+      <c r="S22" s="44"/>
+      <c r="T22" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="U22" s="50" t="s">
+      <c r="U22" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="V22" s="50"/>
-      <c r="W22" s="41" t="s">
+      <c r="V22" s="44"/>
+      <c r="W22" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="X22" s="86" t="s">
+      <c r="X22" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="Y22" s="62" t="s">
+      <c r="Y22" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="Z22" s="75" t="s">
+      <c r="Z22" s="67" t="s">
         <v>292</v>
       </c>
       <c r="AA22" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AB22" s="16" t="s">
+      <c r="AB22" s="10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C23" s="68">
+      <c r="C23" s="62">
         <v>19</v>
       </c>
-      <c r="D23" s="72" t="s">
+      <c r="D23" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -6216,65 +6174,65 @@
       <c r="F23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="H23" s="31" t="str">
+      <c r="H23" s="25" t="str">
         <f t="shared" si="0"/>
         <v>NEA:E/O</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="J23" s="31" t="s">
+      <c r="J23" s="25" t="s">
         <v>177</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L23" s="23" t="s">
+      <c r="L23" s="17" t="s">
         <v>192</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="N23" s="35" t="s">
+      <c r="N23" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="T23" s="37" t="s">
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="T23" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="X23" s="38" t="s">
+      <c r="X23" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="Y23" s="62" t="s">
+      <c r="Y23" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="Z23" s="26" t="s">
+      <c r="Z23" s="20" t="s">
         <v>290</v>
       </c>
       <c r="AA23" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="AB23" s="16" t="s">
+      <c r="AB23" s="10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C24" s="68">
+      <c r="C24" s="62">
         <v>20</v>
       </c>
-      <c r="D24" s="72" t="s">
+      <c r="D24" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -6283,67 +6241,67 @@
       <c r="F24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="H24" s="31" t="str">
+      <c r="H24" s="25" t="str">
         <f t="shared" si="0"/>
         <v>NEA:EOl</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="31" t="s">
+      <c r="J24" s="25" t="s">
         <v>177</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="23" t="s">
+      <c r="L24" s="17" t="s">
         <v>193</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="N24" s="35" t="s">
+      <c r="N24" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35" t="s">
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="T24" s="37" t="s">
+      <c r="T24" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="X24" s="38" t="s">
+      <c r="X24" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="Y24" s="62" t="s">
+      <c r="Y24" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="Z24" s="26" t="s">
+      <c r="Z24" s="20" t="s">
         <v>290</v>
       </c>
       <c r="AA24" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AB24" s="16" t="s">
+      <c r="AB24" s="10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C25" s="68">
+      <c r="C25" s="62">
         <v>18</v>
       </c>
-      <c r="D25" s="72" t="s">
+      <c r="D25" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -6352,70 +6310,70 @@
       <c r="F25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="H25" s="31" t="str">
+      <c r="H25" s="25" t="str">
         <f t="shared" si="0"/>
         <v>NEA:EMi</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="J25" s="31" t="s">
+      <c r="J25" s="25" t="s">
         <v>177</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L25" s="23" t="s">
+      <c r="L25" s="17" t="s">
         <v>195</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="N25" s="35" t="s">
+      <c r="N25" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="55" t="s">
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="U25" s="50" t="s">
+      <c r="U25" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="V25" s="50"/>
-      <c r="W25" s="41" t="s">
+      <c r="V25" s="44"/>
+      <c r="W25" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="X25" s="86" t="s">
+      <c r="X25" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="Y25" s="62" t="s">
+      <c r="Y25" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="Z25" s="75" t="s">
+      <c r="Z25" s="67" t="s">
         <v>292</v>
       </c>
       <c r="AA25" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="AB25" s="16" t="s">
+      <c r="AB25" s="10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C26" s="68">
+      <c r="C26" s="62">
         <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -6427,69 +6385,69 @@
       <c r="F26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="H26" s="31" t="str">
+      <c r="H26" s="25" t="str">
         <f t="shared" si="0"/>
         <v>NEA:MMi</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="J26" s="31" t="s">
+      <c r="J26" s="25" t="s">
         <v>177</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L26" s="42" t="s">
+      <c r="L26" s="36" t="s">
         <v>196</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="N26" s="87" t="s">
+      <c r="N26" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="O26" s="87" t="s">
+      <c r="O26" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="87" t="s">
+      <c r="P26" s="26"/>
+      <c r="Q26" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="R26" s="32"/>
-      <c r="T26" s="37" t="s">
+      <c r="R26" s="26"/>
+      <c r="T26" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="X26" s="38" t="s">
+      <c r="X26" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="Y26" s="62" t="s">
+      <c r="Y26" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="Z26" s="26" t="s">
+      <c r="Z26" s="20" t="s">
         <v>290</v>
       </c>
       <c r="AA26" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AB26" s="16" t="s">
+      <c r="AB26" s="10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C27" s="68">
+      <c r="C27" s="62">
         <v>17</v>
       </c>
-      <c r="D27" s="72" t="s">
+      <c r="D27" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -6498,69 +6456,69 @@
       <c r="F27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="H27" s="31" t="str">
+      <c r="H27" s="25" t="str">
         <f t="shared" si="0"/>
         <v>NEA:LMi</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="J27" s="31" t="s">
+      <c r="J27" s="25" t="s">
         <v>177</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L27" s="23" t="s">
+      <c r="L27" s="17" t="s">
         <v>197</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="N27" s="32" t="s">
+      <c r="N27" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="41" t="s">
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="V27" s="50"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="86" t="s">
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="Y27" s="62" t="s">
+      <c r="Y27" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="Z27" s="75" t="s">
+      <c r="Z27" s="67" t="s">
         <v>292</v>
       </c>
       <c r="AA27" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AB27" s="16" t="s">
+      <c r="AB27" s="10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C28" s="68">
+      <c r="C28" s="62">
         <v>20</v>
       </c>
-      <c r="D28" s="72" t="s">
+      <c r="D28" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -6569,64 +6527,64 @@
       <c r="F28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="H28" s="31" t="str">
+      <c r="H28" s="25" t="str">
         <f t="shared" si="0"/>
         <v>NEA:EOl</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J28" s="31" t="s">
+      <c r="J28" s="25" t="s">
         <v>177</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L28" s="23" t="s">
+      <c r="L28" s="17" t="s">
         <v>193</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="N28" s="32" t="s">
+      <c r="N28" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32" t="s">
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="T28" s="37" t="s">
+      <c r="T28" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="X28" s="38" t="s">
+      <c r="X28" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="Y28" s="62" t="s">
+      <c r="Y28" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="Z28" s="26" t="s">
+      <c r="Z28" s="20" t="s">
         <v>290</v>
       </c>
       <c r="AA28" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AB28" s="16" t="s">
+      <c r="AB28" s="10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C29" s="68">
+      <c r="C29" s="62">
         <v>28</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -6638,65 +6596,65 @@
       <c r="F29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="H29" s="31" t="str">
+      <c r="H29" s="25" t="str">
         <f t="shared" si="0"/>
         <v>WEA:EMi</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J29" s="31" t="s">
+      <c r="J29" s="25" t="s">
         <v>180</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L29" s="23" t="s">
+      <c r="L29" s="17" t="s">
         <v>195</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32" t="s">
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="T29" s="37" t="s">
+      <c r="T29" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="X29" s="38" t="s">
+      <c r="X29" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="Y29" s="62" t="s">
+      <c r="Y29" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="Z29" s="26" t="s">
+      <c r="Z29" s="20" t="s">
         <v>290</v>
       </c>
       <c r="AA29" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="AB29" s="16" t="s">
+      <c r="AB29" s="10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C30" s="68">
+      <c r="C30" s="62">
         <v>10</v>
       </c>
-      <c r="D30" s="72" t="s">
+      <c r="D30" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -6705,73 +6663,73 @@
       <c r="F30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="H30" s="31" t="str">
+      <c r="H30" s="25" t="str">
         <f t="shared" si="0"/>
         <v>WEA:MMi</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="I30" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J30" s="31" t="s">
+      <c r="J30" s="25" t="s">
         <v>180</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L30" s="23" t="s">
+      <c r="L30" s="17" t="s">
         <v>196</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="N30" s="32" t="s">
+      <c r="N30" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32" t="s">
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="R30" s="32"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="55" t="s">
+      <c r="R30" s="26"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="U30" s="50" t="s">
+      <c r="U30" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="V30" s="50"/>
-      <c r="W30" s="55"/>
-      <c r="X30" s="75" t="s">
+      <c r="V30" s="44"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="67" t="s">
         <v>292</v>
       </c>
-      <c r="Y30" s="62" t="s">
+      <c r="Y30" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="Z30" s="75" t="s">
+      <c r="Z30" s="67" t="s">
         <v>292</v>
       </c>
       <c r="AA30" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AB30" s="16" t="s">
+      <c r="AB30" s="10" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C31" s="68">
+      <c r="C31" s="62">
         <v>29</v>
       </c>
-      <c r="D31" s="72" t="s">
+      <c r="D31" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -6780,51 +6738,51 @@
       <c r="F31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="H31" s="31" t="str">
+      <c r="H31" s="25" t="str">
         <f t="shared" si="0"/>
         <v>WEA:MMi</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J31" s="31" t="s">
+      <c r="J31" s="25" t="s">
         <v>180</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L31" s="23" t="s">
+      <c r="L31" s="17" t="s">
         <v>196</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32" t="s">
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="R31" s="32"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="55" t="s">
+      <c r="R31" s="26"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="U31" s="50" t="s">
+      <c r="U31" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="V31" s="50"/>
-      <c r="W31" s="55"/>
-      <c r="X31" s="75" t="s">
+      <c r="V31" s="44"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="67" t="s">
         <v>292</v>
       </c>
-      <c r="Y31" s="62" t="s">
+      <c r="Y31" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="Z31" s="75" t="s">
+      <c r="Z31" s="67" t="s">
         <v>292</v>
       </c>
       <c r="AA31" s="4" t="s">
@@ -6834,14 +6792,14 @@
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C32" s="68">
+      <c r="C32" s="62">
         <v>29</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -6853,51 +6811,51 @@
       <c r="F32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="H32" s="34" t="str">
+      <c r="H32" s="28" t="str">
         <f t="shared" si="0"/>
         <v>WEA:MMi</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J32" s="34" t="s">
+      <c r="J32" s="28" t="s">
         <v>180</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L32" s="23" t="s">
+      <c r="L32" s="17" t="s">
         <v>196</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32" t="s">
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="R32" s="32"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="55" t="s">
+      <c r="R32" s="26"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="U32" s="50" t="s">
+      <c r="U32" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="V32" s="50"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="75" t="s">
+      <c r="V32" s="44"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="67" t="s">
         <v>292</v>
       </c>
-      <c r="Y32" s="62" t="s">
+      <c r="Y32" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="Z32" s="75" t="s">
+      <c r="Z32" s="67" t="s">
         <v>292</v>
       </c>
       <c r="AA32" s="4" t="s">
@@ -6907,17 +6865,17 @@
         <v>258</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C33" s="68">
+      <c r="C33" s="62">
         <v>25</v>
       </c>
-      <c r="D33" s="72" t="s">
+      <c r="D33" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -6926,53 +6884,53 @@
       <c r="F33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G33" s="23" t="s">
+      <c r="G33" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="H33" s="31" t="str">
+      <c r="H33" s="25" t="str">
         <f t="shared" si="0"/>
         <v>WEA:MMi</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="I33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J33" s="31" t="s">
+      <c r="J33" s="25" t="s">
         <v>180</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L33" s="23" t="s">
+      <c r="L33" s="17" t="s">
         <v>196</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32" t="s">
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32" t="s">
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="S33" s="50"/>
-      <c r="T33" s="55" t="s">
+      <c r="S33" s="44"/>
+      <c r="T33" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="U33" s="50" t="s">
+      <c r="U33" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="V33" s="50"/>
-      <c r="W33" s="55"/>
-      <c r="X33" s="75" t="s">
+      <c r="V33" s="44"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="67" t="s">
         <v>292</v>
       </c>
-      <c r="Y33" s="62" t="s">
+      <c r="Y33" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="Z33" s="75" t="s">
+      <c r="Z33" s="67" t="s">
         <v>292</v>
       </c>
       <c r="AA33" s="4" t="s">
@@ -6982,17 +6940,17 @@
         <v>258</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C34" s="68">
+      <c r="C34" s="62">
         <v>27</v>
       </c>
-      <c r="D34" s="72" t="s">
+      <c r="D34" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -7001,49 +6959,49 @@
       <c r="F34" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="23" t="s">
+      <c r="G34" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="H34" s="31" t="str">
+      <c r="H34" s="25" t="str">
         <f t="shared" si="0"/>
         <v>WEA:M/P</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="I34" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="J34" s="31" t="s">
+      <c r="J34" s="25" t="s">
         <v>180</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L34" s="23" t="s">
+      <c r="L34" s="17" t="s">
         <v>198</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="87" t="s">
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="S34" s="55"/>
-      <c r="T34" s="55"/>
-      <c r="U34" s="41" t="s">
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="V34" s="50"/>
-      <c r="W34" s="55"/>
-      <c r="X34" s="86" t="s">
+      <c r="V34" s="44"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="Y34" s="57" t="s">
+      <c r="Y34" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="Z34" s="80" t="s">
+      <c r="Z34" s="72" t="s">
         <v>279</v>
       </c>
       <c r="AA34" s="4" t="s">
@@ -7053,14 +7011,14 @@
         <v>258</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C35" s="68">
+      <c r="C35" s="62">
         <v>27</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -7072,49 +7030,49 @@
       <c r="F35" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="G35" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="H35" s="31" t="str">
+      <c r="H35" s="25" t="str">
         <f t="shared" si="0"/>
         <v>WEA:M/P</v>
       </c>
-      <c r="I35" s="12" t="s">
+      <c r="I35" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="J35" s="31" t="s">
+      <c r="J35" s="25" t="s">
         <v>180</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L35" s="23" t="s">
+      <c r="L35" s="17" t="s">
         <v>198</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="87" t="s">
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="S35" s="55"/>
-      <c r="T35" s="55"/>
-      <c r="U35" s="41" t="s">
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="V35" s="50"/>
-      <c r="W35" s="55"/>
-      <c r="X35" s="86" t="s">
+      <c r="V35" s="44"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="Y35" s="57" t="s">
+      <c r="Y35" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="Z35" s="80" t="s">
+      <c r="Z35" s="72" t="s">
         <v>279</v>
       </c>
       <c r="AA35" s="4" t="s">
@@ -7124,14 +7082,14 @@
         <v>258</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C36" s="68">
+      <c r="C36" s="62">
         <v>27</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -7143,49 +7101,49 @@
       <c r="F36" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="23" t="s">
+      <c r="G36" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="H36" s="31" t="str">
+      <c r="H36" s="25" t="str">
         <f t="shared" si="0"/>
         <v>WEA:M/P</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I36" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="J36" s="31" t="s">
+      <c r="J36" s="25" t="s">
         <v>180</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L36" s="23" t="s">
+      <c r="L36" s="17" t="s">
         <v>198</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="87" t="s">
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="S36" s="55"/>
-      <c r="T36" s="55"/>
-      <c r="U36" s="41" t="s">
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="V36" s="50"/>
-      <c r="W36" s="55"/>
-      <c r="X36" s="86" t="s">
+      <c r="V36" s="44"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="Y36" s="57" t="s">
+      <c r="Y36" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="Z36" s="80" t="s">
+      <c r="Z36" s="72" t="s">
         <v>279</v>
       </c>
       <c r="AA36" s="4" t="s">
@@ -7195,17 +7153,17 @@
         <v>258</v>
       </c>
     </row>
-    <row r="37" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C37" s="68">
+      <c r="C37" s="62">
         <v>26</v>
       </c>
-      <c r="D37" s="72" t="s">
+      <c r="D37" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -7214,49 +7172,49 @@
       <c r="F37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G37" s="21" t="s">
+      <c r="G37" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="H37" s="30" t="str">
+      <c r="H37" s="24" t="str">
         <f t="shared" si="0"/>
         <v>WEA:Pl</v>
       </c>
-      <c r="I37" s="13" t="s">
+      <c r="I37" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J37" s="30" t="s">
+      <c r="J37" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="K37" s="28" t="s">
+      <c r="K37" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="L37" s="43" t="s">
+      <c r="L37" s="37" t="s">
         <v>199</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="50"/>
-      <c r="T37" s="50"/>
-      <c r="U37" s="41" t="s">
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="V37" s="41" t="s">
+      <c r="V37" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="W37" s="50"/>
-      <c r="X37" s="75" t="s">
+      <c r="W37" s="44"/>
+      <c r="X37" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="Y37" s="59" t="s">
+      <c r="Y37" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="Z37" s="75" t="s">
+      <c r="Z37" s="67" t="s">
         <v>280</v>
       </c>
       <c r="AA37" s="1" t="s">
@@ -7266,17 +7224,17 @@
         <v>258</v>
       </c>
     </row>
-    <row r="38" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C38" s="68">
+      <c r="C38" s="62">
         <v>26</v>
       </c>
-      <c r="D38" s="72" t="s">
+      <c r="D38" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -7285,49 +7243,49 @@
       <c r="F38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="21" t="s">
+      <c r="G38" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="H38" s="30" t="str">
+      <c r="H38" s="24" t="str">
         <f t="shared" si="0"/>
         <v>WEA:Pl</v>
       </c>
-      <c r="I38" s="13" t="s">
+      <c r="I38" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J38" s="30" t="s">
+      <c r="J38" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="K38" s="28" t="s">
+      <c r="K38" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="L38" s="43" t="s">
+      <c r="L38" s="37" t="s">
         <v>199</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="50"/>
-      <c r="T38" s="50"/>
-      <c r="U38" s="41" t="s">
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="V38" s="41" t="s">
+      <c r="V38" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="W38" s="50"/>
-      <c r="X38" s="75" t="s">
+      <c r="W38" s="44"/>
+      <c r="X38" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="Y38" s="59" t="s">
+      <c r="Y38" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="Z38" s="75" t="s">
+      <c r="Z38" s="67" t="s">
         <v>280</v>
       </c>
       <c r="AA38" s="1" t="s">
@@ -7337,14 +7295,14 @@
         <v>258</v>
       </c>
     </row>
-    <row r="39" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C39" s="68">
+      <c r="C39" s="62">
         <v>26</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -7356,49 +7314,49 @@
       <c r="F39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="H39" s="40" t="str">
+      <c r="H39" s="34" t="str">
         <f t="shared" si="0"/>
         <v>WEA:Pl</v>
       </c>
-      <c r="I39" s="13" t="s">
+      <c r="I39" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J39" s="40" t="s">
+      <c r="J39" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="K39" s="28" t="s">
+      <c r="K39" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="L39" s="43" t="s">
+      <c r="L39" s="37" t="s">
         <v>199</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="50"/>
-      <c r="T39" s="50"/>
-      <c r="U39" s="41" t="s">
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="V39" s="41" t="s">
+      <c r="V39" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="W39" s="50"/>
-      <c r="X39" s="75" t="s">
+      <c r="W39" s="44"/>
+      <c r="X39" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="Y39" s="59" t="s">
+      <c r="Y39" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="Z39" s="75" t="s">
+      <c r="Z39" s="67" t="s">
         <v>280</v>
       </c>
       <c r="AA39" s="1" t="s">
@@ -7408,17 +7366,17 @@
         <v>258</v>
       </c>
     </row>
-    <row r="40" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C40" s="68">
+      <c r="C40" s="62">
         <v>23</v>
       </c>
-      <c r="D40" s="72" t="s">
+      <c r="D40" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -7427,49 +7385,49 @@
       <c r="F40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G40" s="21" t="s">
+      <c r="G40" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="H40" s="30" t="str">
+      <c r="H40" s="24" t="str">
         <f t="shared" si="0"/>
         <v>WEA:Pl</v>
       </c>
-      <c r="I40" s="13" t="s">
+      <c r="I40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J40" s="30" t="s">
+      <c r="J40" s="24" t="s">
         <v>180</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L40" s="43" t="s">
+      <c r="L40" s="37" t="s">
         <v>199</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="32" t="s">
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="S40" s="50"/>
-      <c r="T40" s="41" t="s">
+      <c r="S40" s="44"/>
+      <c r="T40" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="U40" s="50"/>
-      <c r="V40" s="50"/>
-      <c r="W40" s="50"/>
-      <c r="X40" s="75" t="s">
+      <c r="U40" s="44"/>
+      <c r="V40" s="44"/>
+      <c r="W40" s="44"/>
+      <c r="X40" s="67" t="s">
         <v>290</v>
       </c>
-      <c r="Y40" s="62" t="s">
+      <c r="Y40" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="Z40" s="26" t="s">
+      <c r="Z40" s="20" t="s">
         <v>290</v>
       </c>
       <c r="AA40" s="1" t="s">
@@ -7479,17 +7437,17 @@
         <v>258</v>
       </c>
     </row>
-    <row r="41" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C41" s="68">
+      <c r="C41" s="62">
         <v>29</v>
       </c>
-      <c r="D41" s="72" t="s">
+      <c r="D41" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -7498,51 +7456,51 @@
       <c r="F41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G41" s="21" t="s">
+      <c r="G41" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="H41" s="30" t="str">
+      <c r="H41" s="24" t="str">
         <f t="shared" si="0"/>
         <v>WEA:MMi</v>
       </c>
-      <c r="I41" s="12" t="s">
+      <c r="I41" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="30" t="s">
+      <c r="J41" s="24" t="s">
         <v>180</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L41" s="21" t="s">
+      <c r="L41" s="15" t="s">
         <v>196</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="N41" s="32"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="32" t="s">
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="R41" s="32"/>
-      <c r="S41" s="50"/>
-      <c r="T41" s="55" t="s">
+      <c r="R41" s="26"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="U41" s="50" t="s">
+      <c r="U41" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="V41" s="50"/>
-      <c r="W41" s="55"/>
-      <c r="X41" s="75" t="s">
+      <c r="V41" s="44"/>
+      <c r="W41" s="49"/>
+      <c r="X41" s="67" t="s">
         <v>292</v>
       </c>
-      <c r="Y41" s="62" t="s">
+      <c r="Y41" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="Z41" s="75" t="s">
+      <c r="Z41" s="67" t="s">
         <v>292</v>
       </c>
       <c r="AA41" s="1" t="s">
@@ -7552,17 +7510,17 @@
         <v>258</v>
       </c>
     </row>
-    <row r="42" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="68">
+      <c r="C42" s="62">
         <v>13</v>
       </c>
-      <c r="D42" s="72" t="s">
+      <c r="D42" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -7571,51 +7529,51 @@
       <c r="F42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G42" s="21" t="s">
+      <c r="G42" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="H42" s="30" t="str">
+      <c r="H42" s="24" t="str">
         <f t="shared" si="0"/>
         <v>WEA:LMi</v>
       </c>
-      <c r="I42" s="13" t="s">
+      <c r="I42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J42" s="30" t="s">
+      <c r="J42" s="24" t="s">
         <v>180</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L42" s="21" t="s">
+      <c r="L42" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="M42" s="39" t="s">
+      <c r="M42" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="N42" s="40" t="s">
+      <c r="N42" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="O42" s="32" t="s">
+      <c r="O42" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="50"/>
-      <c r="T42" s="41" t="s">
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="U42" s="50"/>
-      <c r="V42" s="50"/>
-      <c r="W42" s="50"/>
-      <c r="X42" s="75" t="s">
+      <c r="U42" s="44"/>
+      <c r="V42" s="44"/>
+      <c r="W42" s="44"/>
+      <c r="X42" s="67" t="s">
         <v>290</v>
       </c>
-      <c r="Y42" s="62" t="s">
+      <c r="Y42" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="Z42" s="26" t="s">
+      <c r="Z42" s="20" t="s">
         <v>290</v>
       </c>
       <c r="AA42" s="1" t="s">
@@ -7625,17 +7583,17 @@
         <v>258</v>
       </c>
     </row>
-    <row r="43" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C43" s="68">
+      <c r="C43" s="62">
         <v>30</v>
       </c>
-      <c r="D43" s="72" t="s">
+      <c r="D43" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -7644,49 +7602,49 @@
       <c r="F43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G43" s="21" t="s">
+      <c r="G43" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="H43" s="30" t="str">
+      <c r="H43" s="24" t="str">
         <f t="shared" si="0"/>
         <v>WEA:Pl</v>
       </c>
-      <c r="I43" s="13" t="s">
+      <c r="I43" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J43" s="30" t="s">
+      <c r="J43" s="24" t="s">
         <v>180</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L43" s="21" t="s">
+      <c r="L43" s="15" t="s">
         <v>199</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N43" s="32"/>
-      <c r="O43" s="32"/>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="32"/>
-      <c r="R43" s="32" t="s">
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="S43" s="50"/>
-      <c r="T43" s="41" t="s">
+      <c r="S43" s="44"/>
+      <c r="T43" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="U43" s="50"/>
-      <c r="V43" s="50"/>
-      <c r="W43" s="50"/>
-      <c r="X43" s="75" t="s">
+      <c r="U43" s="44"/>
+      <c r="V43" s="44"/>
+      <c r="W43" s="44"/>
+      <c r="X43" s="67" t="s">
         <v>290</v>
       </c>
-      <c r="Y43" s="62" t="s">
+      <c r="Y43" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="Z43" s="26" t="s">
+      <c r="Z43" s="20" t="s">
         <v>290</v>
       </c>
       <c r="AA43" s="1" t="s">
@@ -7696,17 +7654,17 @@
         <v>258</v>
       </c>
     </row>
-    <row r="44" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C44" s="68">
+      <c r="C44" s="62">
         <v>24</v>
       </c>
-      <c r="D44" s="72" t="s">
+      <c r="D44" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -7715,51 +7673,51 @@
       <c r="F44" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G44" s="21" t="s">
+      <c r="G44" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="H44" s="30" t="str">
+      <c r="H44" s="24" t="str">
         <f t="shared" si="0"/>
         <v>WEA:Pl</v>
       </c>
-      <c r="I44" s="13" t="s">
+      <c r="I44" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="J44" s="30" t="s">
+      <c r="J44" s="24" t="s">
         <v>180</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L44" s="21" t="s">
+      <c r="L44" s="15" t="s">
         <v>199</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N44" s="32"/>
-      <c r="O44" s="32"/>
-      <c r="P44" s="32"/>
-      <c r="Q44" s="32"/>
-      <c r="R44" s="32" t="s">
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="S44" s="50"/>
-      <c r="T44" s="50"/>
-      <c r="U44" s="41" t="s">
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="V44" s="41" t="s">
+      <c r="V44" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="W44" s="50"/>
-      <c r="X44" s="75" t="s">
+      <c r="W44" s="44"/>
+      <c r="X44" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="Y44" s="59" t="s">
+      <c r="Y44" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="Z44" s="75" t="s">
+      <c r="Z44" s="67" t="s">
         <v>280</v>
       </c>
       <c r="AA44" s="1" t="s">
@@ -7769,17 +7727,17 @@
         <v>258</v>
       </c>
     </row>
-    <row r="45" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C45" s="68">
+      <c r="C45" s="62">
         <v>24</v>
       </c>
-      <c r="D45" s="72" t="s">
+      <c r="D45" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -7788,51 +7746,51 @@
       <c r="F45" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G45" s="21" t="s">
+      <c r="G45" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="H45" s="30" t="str">
+      <c r="H45" s="24" t="str">
         <f t="shared" si="0"/>
         <v>WEA:Pl</v>
       </c>
-      <c r="I45" s="13" t="s">
+      <c r="I45" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="J45" s="30" t="s">
+      <c r="J45" s="24" t="s">
         <v>180</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L45" s="21" t="s">
+      <c r="L45" s="15" t="s">
         <v>199</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N45" s="32"/>
-      <c r="O45" s="32"/>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="32"/>
-      <c r="R45" s="32" t="s">
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="S45" s="49"/>
-      <c r="T45" s="49"/>
-      <c r="U45" s="32" t="s">
+      <c r="S45" s="43"/>
+      <c r="T45" s="43"/>
+      <c r="U45" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V45" s="32" t="s">
+      <c r="V45" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="W45" s="49"/>
+      <c r="W45" s="43"/>
       <c r="X45" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="Y45" s="60" t="s">
+      <c r="Y45" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="Z45" s="75" t="s">
+      <c r="Z45" s="67" t="s">
         <v>280</v>
       </c>
       <c r="AA45" s="1" t="s">
@@ -7842,699 +7800,699 @@
         <v>258</v>
       </c>
     </row>
-    <row r="46" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
+    <row r="46" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C46" s="68">
+      <c r="C46" s="62">
         <v>22</v>
       </c>
-      <c r="D46" s="73" t="s">
+      <c r="D46" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G46" s="21" t="s">
+      <c r="G46" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="H46" s="30" t="str">
+      <c r="H46" s="24" t="str">
         <f t="shared" si="0"/>
         <v>CAS:LOl</v>
       </c>
-      <c r="I46" s="15" t="s">
+      <c r="I46" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="J46" s="30" t="s">
+      <c r="J46" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="K46" s="16" t="s">
+      <c r="K46" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="L46" s="24" t="s">
+      <c r="L46" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="M46" s="16" t="s">
+      <c r="M46" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="N46" s="36"/>
-      <c r="O46" s="36"/>
-      <c r="P46" s="41" t="s">
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="Q46" s="41" t="s">
+      <c r="Q46" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="R46" s="36"/>
-      <c r="S46" s="55"/>
-      <c r="T46" s="55"/>
-      <c r="U46" s="41" t="s">
+      <c r="R46" s="30"/>
+      <c r="S46" s="49"/>
+      <c r="T46" s="49"/>
+      <c r="U46" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="V46" s="50"/>
-      <c r="W46" s="55"/>
-      <c r="X46" s="86" t="s">
+      <c r="V46" s="44"/>
+      <c r="W46" s="49"/>
+      <c r="X46" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="Y46" s="57" t="s">
+      <c r="Y46" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="Z46" s="80" t="s">
+      <c r="Z46" s="72" t="s">
         <v>279</v>
       </c>
-      <c r="AA46" s="16" t="s">
+      <c r="AA46" s="10" t="s">
         <v>260</v>
       </c>
       <c r="AB46" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="47" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
+    <row r="47" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C47" s="69">
+      <c r="C47" s="63">
         <v>22</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="F47" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G47" s="24" t="s">
+      <c r="G47" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="H47" s="40" t="str">
+      <c r="H47" s="34" t="str">
         <f t="shared" si="0"/>
         <v>CAS:LOl</v>
       </c>
-      <c r="I47" s="15" t="s">
+      <c r="I47" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="J47" s="40" t="s">
+      <c r="J47" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="K47" s="16" t="s">
+      <c r="K47" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="L47" s="24" t="s">
+      <c r="L47" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="M47" s="16" t="s">
+      <c r="M47" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="N47" s="36"/>
-      <c r="O47" s="36"/>
-      <c r="P47" s="41" t="s">
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="Q47" s="41" t="s">
+      <c r="Q47" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="R47" s="36"/>
-      <c r="S47" s="55"/>
-      <c r="T47" s="55"/>
-      <c r="U47" s="41" t="s">
+      <c r="R47" s="30"/>
+      <c r="S47" s="49"/>
+      <c r="T47" s="49"/>
+      <c r="U47" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="V47" s="50"/>
-      <c r="W47" s="55"/>
-      <c r="X47" s="86" t="s">
+      <c r="V47" s="44"/>
+      <c r="W47" s="49"/>
+      <c r="X47" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="Y47" s="57" t="s">
+      <c r="Y47" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="Z47" s="80" t="s">
+      <c r="Z47" s="72" t="s">
         <v>279</v>
       </c>
-      <c r="AA47" s="16" t="s">
+      <c r="AA47" s="10" t="s">
         <v>260</v>
       </c>
       <c r="AB47" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="48" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
+    <row r="48" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C48" s="69">
+      <c r="C48" s="63">
         <v>31</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G48" s="24" t="s">
+      <c r="G48" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H48" s="40" t="str">
+      <c r="H48" s="34" t="str">
         <f t="shared" si="0"/>
         <v>WEA:MMi</v>
       </c>
-      <c r="I48" s="14" t="s">
+      <c r="I48" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="J48" s="40" t="s">
+      <c r="J48" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="K48" s="16" t="s">
+      <c r="K48" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="L48" s="24" t="s">
+      <c r="L48" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="M48" s="16" t="s">
+      <c r="M48" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="N48" s="36"/>
-      <c r="O48" s="36"/>
-      <c r="P48" s="41" t="s">
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="50"/>
-      <c r="T48" s="55" t="s">
+      <c r="Q48" s="30"/>
+      <c r="R48" s="30"/>
+      <c r="S48" s="44"/>
+      <c r="T48" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="U48" s="50" t="s">
+      <c r="U48" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="V48" s="50"/>
-      <c r="W48" s="55"/>
-      <c r="X48" s="75" t="s">
+      <c r="V48" s="44"/>
+      <c r="W48" s="49"/>
+      <c r="X48" s="67" t="s">
         <v>292</v>
       </c>
-      <c r="Y48" s="62" t="s">
+      <c r="Y48" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="Z48" s="75" t="s">
+      <c r="Z48" s="67" t="s">
         <v>292</v>
       </c>
-      <c r="AA48" s="16" t="s">
+      <c r="AA48" s="10" t="s">
         <v>95</v>
       </c>
       <c r="AB48" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="49" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
+    <row r="49" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C49" s="69">
+      <c r="C49" s="63">
         <v>31</v>
       </c>
-      <c r="D49" s="73" t="s">
+      <c r="D49" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="F49" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G49" s="24" t="s">
+      <c r="G49" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="H49" s="40" t="str">
+      <c r="H49" s="34" t="str">
         <f t="shared" si="0"/>
         <v>WEA:MMi</v>
       </c>
-      <c r="I49" s="14" t="s">
+      <c r="I49" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="J49" s="40" t="s">
+      <c r="J49" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="K49" s="16" t="s">
+      <c r="K49" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="L49" s="24" t="s">
+      <c r="L49" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="M49" s="16" t="s">
+      <c r="M49" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="N49" s="36"/>
-      <c r="O49" s="36"/>
-      <c r="P49" s="41" t="s">
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="36"/>
-      <c r="S49" s="50"/>
-      <c r="T49" s="55" t="s">
+      <c r="Q49" s="30"/>
+      <c r="R49" s="30"/>
+      <c r="S49" s="44"/>
+      <c r="T49" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="U49" s="50" t="s">
+      <c r="U49" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="V49" s="50"/>
-      <c r="W49" s="55"/>
-      <c r="X49" s="75" t="s">
+      <c r="V49" s="44"/>
+      <c r="W49" s="49"/>
+      <c r="X49" s="67" t="s">
         <v>292</v>
       </c>
-      <c r="Y49" s="62" t="s">
+      <c r="Y49" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="Z49" s="75" t="s">
+      <c r="Z49" s="67" t="s">
         <v>292</v>
       </c>
-      <c r="AA49" s="16" t="s">
+      <c r="AA49" s="10" t="s">
         <v>95</v>
       </c>
       <c r="AB49" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="F50" s="17" t="s">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="F50" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G50" s="25" t="str">
+      <c r="G50" s="19" t="str">
         <f>CONCATENATE(F50,".prior")</f>
         <v>castaneifolia.prior</v>
       </c>
-      <c r="J50" s="34" t="s">
+      <c r="J50" s="28" t="s">
         <v>181</v>
       </c>
       <c r="K50" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="N50" s="37" t="s">
+      <c r="N50" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="O50" s="38" t="s">
+      <c r="O50" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="T50" s="37" t="s">
+      <c r="T50" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="U50" s="38" t="s">
+      <c r="U50" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="X50" s="83" t="s">
+      <c r="X50" s="75" t="s">
         <v>285</v>
       </c>
-      <c r="Y50" s="81" t="s">
+      <c r="Y50" s="73" t="s">
         <v>275</v>
       </c>
-      <c r="Z50" s="75" t="s">
+      <c r="Z50" s="67" t="s">
         <v>292</v>
       </c>
-      <c r="AA50" s="78" t="s">
+      <c r="AA50" s="70" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F51" s="18" t="s">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="F51" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G51" s="25" t="str">
+      <c r="G51" s="19" t="str">
         <f>CONCATENATE(F51,"1.prior")</f>
         <v>cerris1.prior</v>
       </c>
-      <c r="J51" s="34" t="s">
+      <c r="J51" s="28" t="s">
         <v>178</v>
       </c>
       <c r="K51" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="W51" s="77"/>
-      <c r="X51" s="83" t="s">
+      <c r="W51" s="69"/>
+      <c r="X51" s="75" t="s">
         <v>285</v>
       </c>
-      <c r="Y51" s="81" t="s">
+      <c r="Y51" s="73" t="s">
         <v>289</v>
       </c>
-      <c r="Z51" s="16" t="s">
+      <c r="Z51" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="AA51" s="78" t="s">
+      <c r="AA51" s="70" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="F52" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G52" s="25" t="s">
+      <c r="G52" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="J52" s="34" t="s">
+      <c r="J52" s="28" t="s">
         <v>177</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="X52" s="83" t="s">
+      <c r="X52" s="75" t="s">
         <v>285</v>
       </c>
-      <c r="Y52" s="81" t="s">
+      <c r="Y52" s="73" t="s">
         <v>276</v>
       </c>
-      <c r="Z52" s="80" t="s">
+      <c r="Z52" s="72" t="s">
         <v>279</v>
       </c>
-      <c r="AA52" s="78" t="s">
+      <c r="AA52" s="70" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F53" s="17" t="s">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="F53" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G53" s="25" t="s">
+      <c r="G53" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="J53" s="34" t="s">
+      <c r="J53" s="28" t="s">
         <v>179</v>
       </c>
       <c r="K53" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="X53" s="84" t="s">
+      <c r="X53" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="Y53" s="81" t="s">
+      <c r="Y53" s="73" t="s">
         <v>277</v>
       </c>
-      <c r="Z53" s="75" t="s">
+      <c r="Z53" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="AA53" s="78" t="s">
+      <c r="AA53" s="70" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
       <c r="F54" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G54" s="25" t="s">
+      <c r="G54" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="J54" s="34" t="s">
+      <c r="J54" s="28" t="s">
         <v>180</v>
       </c>
       <c r="K54" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="X54" s="84" t="s">
+      <c r="X54" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="Y54" s="81" t="s">
+      <c r="Y54" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="Z54" s="26" t="s">
+      <c r="Z54" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="AA54" s="78" t="s">
+      <c r="AA54" s="70" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
       <c r="F55" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G55" s="26" t="s">
+      <c r="G55" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="H55" s="40"/>
-      <c r="J55" s="40" t="s">
+      <c r="H55" s="34"/>
+      <c r="J55" s="34" t="s">
         <v>176</v>
       </c>
       <c r="K55" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="X55" s="83" t="s">
+      <c r="X55" s="75" t="s">
         <v>285</v>
       </c>
-      <c r="Y55" s="81" t="s">
+      <c r="Y55" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="Z55" s="26" t="s">
+      <c r="Z55" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="AA55" s="78" t="s">
+      <c r="AA55" s="70" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
       <c r="F56" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G56" s="26" t="s">
+      <c r="G56" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="H56" s="40"/>
-      <c r="J56" s="40"/>
-      <c r="X56" s="84" t="s">
+      <c r="H56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="X56" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="Y56" s="81" t="s">
+      <c r="Y56" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="Z56" s="26" t="s">
+      <c r="Z56" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="AA56" s="79" t="s">
+      <c r="AA56" s="71" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="57" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F57" s="16" t="s">
+    <row r="57" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F57" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="25" t="str">
+      <c r="G57" s="19" t="str">
         <f>CONCATENATE(F57,".prior")</f>
         <v>alnifolia.prior</v>
       </c>
-      <c r="H57" s="34"/>
-      <c r="J57" s="34"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="36"/>
-      <c r="O57" s="36"/>
-      <c r="P57" s="36"/>
-      <c r="Q57" s="36"/>
-      <c r="R57" s="36"/>
-      <c r="S57" s="50"/>
-      <c r="T57" s="50"/>
-      <c r="U57" s="50"/>
-      <c r="V57" s="50"/>
-      <c r="W57" s="50"/>
-      <c r="X57" s="84" t="s">
+      <c r="H57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="30"/>
+      <c r="S57" s="44"/>
+      <c r="T57" s="44"/>
+      <c r="U57" s="44"/>
+      <c r="V57" s="44"/>
+      <c r="W57" s="44"/>
+      <c r="X57" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="Y57" s="81" t="s">
+      <c r="Y57" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="Z57" s="26" t="s">
+      <c r="Z57" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="AA57" s="78" t="s">
+      <c r="AA57" s="70" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="F58" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G58" s="25" t="s">
+      <c r="G58" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="X58" s="85" t="s">
+      <c r="X58" s="77" t="s">
         <v>284</v>
       </c>
-      <c r="Y58" s="81" t="s">
+      <c r="Y58" s="73" t="s">
         <v>293</v>
       </c>
-      <c r="Z58" s="75" t="s">
+      <c r="Z58" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="AA58" s="78" t="s">
+      <c r="AA58" s="70" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="E59" s="27"/>
-      <c r="F59" s="7" t="s">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="E59" s="21"/>
+      <c r="F59" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="25" t="s">
+      <c r="G59" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="X59" s="84" t="s">
+      <c r="X59" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="Y59" s="81" t="s">
+      <c r="Y59" s="73" t="s">
         <v>277</v>
       </c>
-      <c r="Z59" s="75" t="s">
+      <c r="Z59" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="AA59" s="78" t="s">
+      <c r="AA59" s="70" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F60" s="18" t="s">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="F60" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="25" t="str">
+      <c r="G60" s="19" t="str">
         <f>CONCATENATE(F60,".prior")</f>
         <v>floribunda.prior</v>
       </c>
-      <c r="X60" s="84" t="s">
+      <c r="X60" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="Y60" s="81" t="s">
+      <c r="Y60" s="73" t="s">
         <v>277</v>
       </c>
-      <c r="Z60" s="75" t="s">
+      <c r="Z60" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="AA60" s="78" t="s">
+      <c r="AA60" s="70" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
       <c r="F61" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G61" s="25" t="s">
+      <c r="G61" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="X61" s="84" t="s">
+      <c r="X61" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="Y61" s="81" t="s">
+      <c r="Y61" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="Z61" s="26" t="s">
+      <c r="Z61" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="AA61" s="78" t="s">
+      <c r="AA61" s="70" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
       <c r="F62" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G62" s="26" t="s">
+      <c r="G62" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="H62" s="40"/>
-      <c r="J62" s="40"/>
-      <c r="X62" s="83" t="s">
+      <c r="H62" s="34"/>
+      <c r="J62" s="34"/>
+      <c r="X62" s="75" t="s">
         <v>285</v>
       </c>
-      <c r="Y62" s="81" t="s">
+      <c r="Y62" s="73" t="s">
         <v>293</v>
       </c>
-      <c r="Z62" s="75" t="s">
+      <c r="Z62" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="AA62" s="78" t="s">
+      <c r="AA62" s="70" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
       <c r="F63" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G63" s="26" t="s">
+      <c r="G63" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H63" s="40"/>
-      <c r="J63" s="40"/>
-      <c r="X63" s="84" t="s">
+      <c r="H63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="X63" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="Y63" s="81" t="s">
+      <c r="Y63" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="Z63" s="26" t="s">
+      <c r="Z63" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="AA63" s="78" t="s">
+      <c r="AA63" s="70" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="X64" s="84" t="s">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="X64" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="Y64" s="81" t="s">
+      <c r="Y64" s="73" t="s">
         <v>277</v>
       </c>
-      <c r="Z64" s="75" t="s">
+      <c r="Z64" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="AA64" s="78" t="s">
+      <c r="AA64" s="70" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X65" s="82" t="s">
+    <row r="65" spans="24:25" x14ac:dyDescent="0.3">
+      <c r="X65" s="74" t="s">
         <v>282</v>
       </c>
-      <c r="Y65" s="81" t="s">
+      <c r="Y65" s="73" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="66" spans="24:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="24:25" x14ac:dyDescent="0.3">
       <c r="Y66" s="5" t="s">
         <v>294</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AB65"/>
+  <autoFilter ref="A2:AB65" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="S1:X1"/>
@@ -8569,232 +8527,234 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="164.42578125" style="88" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="88"/>
+    <col min="1" max="1" width="164.44140625" style="80" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="85" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+    <row r="2" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="83" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+    <row r="3" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="83" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+    <row r="4" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="85" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94" t="s">
+    <row r="5" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="86" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="90" t="s">
+    <row r="6" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="82" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+    <row r="7" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="87" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="91" t="s">
+    <row r="8" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="83" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="96" t="s">
+    <row r="9" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="88" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="10" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="93" t="s">
+    <row r="10" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="85" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+    <row r="11" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="86" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="94" t="s">
+    <row r="12" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="86" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="93" t="s">
+    <row r="13" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="85" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="15" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="93" t="s">
+    <row r="15" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="85" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="16" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="96" t="s">
+    <row r="16" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="88" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="96" t="s">
+    <row r="17" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="88" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="91" t="s">
+    <row r="18" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="83" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="91" t="s">
+    <row r="19" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="83" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+    <row r="20" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="33" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="93" t="s">
+    <row r="21" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="85" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="92" t="s">
+    <row r="22" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="84" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="96" t="s">
+    <row r="23" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="88" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="92" t="s">
+    <row r="24" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="84" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="91" t="s">
+    <row r="25" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="83" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+    <row r="26" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="33" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="96" t="s">
+    <row r="27" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="88" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="94" t="s">
+    <row r="28" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="86" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="96" t="s">
+    <row r="29" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="88" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="92" t="s">
+    <row r="30" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="84" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="91" t="s">
+    <row r="31" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="83" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="32" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+    <row r="32" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="33" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="93" t="s">
+    <row r="33" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="85" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="93" t="s">
+    <row r="34" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="85" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="35" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="91" t="s">
+    <row r="35" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="83" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="91" t="s">
+    <row r="36" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="83" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="37" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="96" t="s">
+    <row r="37" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="88" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="38" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="93" t="s">
+    <row r="38" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="85" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="39" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="91" t="s">
+    <row r="39" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="83" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="40" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="92" t="s">
+    <row r="40" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="84" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="41" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="93" t="s">
+    <row r="41" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="85" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="42" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="91" t="s">
+    <row r="42" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="83" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="43" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="92"/>
-    </row>
-    <row r="44" spans="1:1" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
+    <row r="43" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="84"/>
+    </row>
+    <row r="44" spans="1:1" s="81" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
